--- a/doc/资源图片/规则/卡片大全.xlsx
+++ b/doc/资源图片/规则/卡片大全.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="小买卖卡" sheetId="1" r:id="rId1"/>
@@ -2264,8 +2264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4233,8 +4233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L2"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="4" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B4" s="10">
         <v>2</v>
@@ -4404,8 +4404,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
-        <v>201</v>
+      <c r="A5" s="9">
+        <v>203</v>
       </c>
       <c r="B5" s="10">
         <v>2</v>
@@ -4442,8 +4442,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
-        <v>201</v>
+      <c r="A6" s="10">
+        <v>204</v>
       </c>
       <c r="B6" s="9">
         <v>2</v>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="7" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B7" s="9">
         <v>2</v>
@@ -4518,8 +4518,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
-        <v>201</v>
+      <c r="A8" s="10">
+        <v>206</v>
       </c>
       <c r="B8" s="9">
         <v>2</v>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="9" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B9" s="9">
         <v>2</v>
@@ -4594,8 +4594,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
-        <v>201</v>
+      <c r="A10" s="10">
+        <v>208</v>
       </c>
       <c r="B10" s="9">
         <v>2</v>
@@ -4633,7 +4633,7 @@
     </row>
     <row r="11" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B11" s="9">
         <v>2</v>
@@ -4670,8 +4670,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
-        <v>201</v>
+      <c r="A12" s="10">
+        <v>210</v>
       </c>
       <c r="B12" s="9">
         <v>2</v>
@@ -4709,7 +4709,7 @@
     </row>
     <row r="13" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B13" s="9">
         <v>2</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="14" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="B14" s="10">
         <v>2</v>
@@ -4784,8 +4784,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10">
-        <v>201</v>
+      <c r="A15" s="9">
+        <v>213</v>
       </c>
       <c r="B15" s="10">
         <v>2</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="16" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="B16" s="10">
         <v>2</v>
@@ -4860,8 +4860,8 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10">
-        <v>201</v>
+      <c r="A17" s="9">
+        <v>215</v>
       </c>
       <c r="B17" s="10">
         <v>2</v>
@@ -4899,7 +4899,7 @@
     </row>
     <row r="18" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="10">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="B18" s="10">
         <v>2</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="19" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B19" s="9">
         <v>2</v>
@@ -4974,8 +4974,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9">
-        <v>201</v>
+      <c r="A20" s="10">
+        <v>218</v>
       </c>
       <c r="B20" s="9">
         <v>2</v>
@@ -5013,7 +5013,7 @@
     </row>
     <row r="21" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="B21" s="9">
         <v>2</v>
@@ -5050,8 +5050,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
-        <v>201</v>
+      <c r="A22" s="10">
+        <v>220</v>
       </c>
       <c r="B22" s="9">
         <v>2</v>
@@ -5089,7 +5089,7 @@
     </row>
     <row r="23" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="B23" s="9">
         <v>2</v>
@@ -5126,8 +5126,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9">
-        <v>201</v>
+      <c r="A24" s="10">
+        <v>222</v>
       </c>
       <c r="B24" s="9">
         <v>2</v>
@@ -5164,8 +5164,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10">
-        <v>201</v>
+      <c r="A25" s="9">
+        <v>223</v>
       </c>
       <c r="B25" s="10">
         <v>2</v>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="26" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="10">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="B26" s="10">
         <v>2</v>
@@ -5240,8 +5240,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10">
-        <v>201</v>
+      <c r="A27" s="9">
+        <v>225</v>
       </c>
       <c r="B27" s="10">
         <v>2</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="28" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="10">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="B28" s="10">
         <v>2</v>
@@ -5317,7 +5317,7 @@
     </row>
     <row r="29" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="B29" s="9">
         <v>2</v>
@@ -5354,8 +5354,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="9">
-        <v>201</v>
+      <c r="A30" s="10">
+        <v>228</v>
       </c>
       <c r="B30" s="9">
         <v>2</v>
@@ -5393,7 +5393,7 @@
     </row>
     <row r="31" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="B31" s="9">
         <v>2</v>
@@ -5430,8 +5430,8 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="9">
-        <v>201</v>
+      <c r="A32" s="10">
+        <v>230</v>
       </c>
       <c r="B32" s="9">
         <v>2</v>
@@ -5468,8 +5468,8 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="10">
-        <v>201</v>
+      <c r="A33" s="9">
+        <v>231</v>
       </c>
       <c r="B33" s="10">
         <v>2</v>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="34" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="10">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="B34" s="10">
         <v>2</v>
@@ -5544,8 +5544,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="10">
-        <v>201</v>
+      <c r="A35" s="9">
+        <v>233</v>
       </c>
       <c r="B35" s="10">
         <v>2</v>
@@ -5583,7 +5583,7 @@
     </row>
     <row r="36" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="10">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="B36" s="10">
         <v>2</v>
@@ -5621,7 +5621,7 @@
     </row>
     <row r="37" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="B37" s="9">
         <v>2</v>
@@ -5658,8 +5658,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="9">
-        <v>201</v>
+      <c r="A38" s="10">
+        <v>236</v>
       </c>
       <c r="B38" s="9">
         <v>2</v>
@@ -5697,7 +5697,7 @@
     </row>
     <row r="39" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="B39" s="9">
         <v>2</v>
@@ -5734,8 +5734,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="9">
-        <v>201</v>
+      <c r="A40" s="10">
+        <v>238</v>
       </c>
       <c r="B40" s="9">
         <v>2</v>
@@ -5773,7 +5773,7 @@
     </row>
     <row r="41" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="9">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="B41" s="9">
         <v>2</v>
@@ -5810,8 +5810,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="9">
-        <v>201</v>
+      <c r="A42" s="10">
+        <v>240</v>
       </c>
       <c r="B42" s="9">
         <v>2</v>
@@ -5849,7 +5849,7 @@
     </row>
     <row r="43" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="9">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="B43" s="9">
         <v>2</v>
@@ -5886,8 +5886,8 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="9">
-        <v>201</v>
+      <c r="A44" s="10">
+        <v>242</v>
       </c>
       <c r="B44" s="9">
         <v>2</v>
@@ -5952,7 +5952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
